--- a/src/test/resources/Bulk Excel File/Bulk Collection/Test5.xlsx
+++ b/src/test/resources/Bulk Excel File/Bulk Collection/Test5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\Bulk Collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\Bulk Excel File\Bulk Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D165F4D-2A74-44A8-AD21-0C3E0E3F267A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8789DB73-4353-429A-909C-C6EE4E598B5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>S.No</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>AutoTest1</t>
+  </si>
+  <si>
+    <t>auto-test1</t>
   </si>
 </sst>
 </file>
@@ -428,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.19921875" defaultRowHeight="15.6"/>
@@ -480,7 +483,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
